--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_198.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_198.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33052-d82052-Reviews-Days_Inn_Santa_Monica_los_Angeles-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>509</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Santa-MonicaLos-Angeles.h18534.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_198.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_198.xlsx
@@ -6283,7 +6283,7 @@
         <v>28912</v>
       </c>
       <c r="B2" t="n">
-        <v>135645</v>
+        <v>166566</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6354,7 +6354,7 @@
         <v>28912</v>
       </c>
       <c r="B3" t="n">
-        <v>135646</v>
+        <v>166567</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -6419,7 +6419,7 @@
         <v>28912</v>
       </c>
       <c r="B4" t="n">
-        <v>135647</v>
+        <v>166568</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -6480,7 +6480,7 @@
         <v>28912</v>
       </c>
       <c r="B5" t="n">
-        <v>135648</v>
+        <v>166569</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -6551,7 +6551,7 @@
         <v>28912</v>
       </c>
       <c r="B6" t="n">
-        <v>135649</v>
+        <v>166570</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -6616,7 +6616,7 @@
         <v>28912</v>
       </c>
       <c r="B7" t="n">
-        <v>135650</v>
+        <v>166571</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -6758,7 +6758,7 @@
         <v>28912</v>
       </c>
       <c r="B9" t="n">
-        <v>135651</v>
+        <v>135654</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -6829,7 +6829,7 @@
         <v>28912</v>
       </c>
       <c r="B10" t="n">
-        <v>135652</v>
+        <v>166572</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -6900,7 +6900,7 @@
         <v>28912</v>
       </c>
       <c r="B11" t="n">
-        <v>135653</v>
+        <v>166573</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -6967,7 +6967,7 @@
         <v>28912</v>
       </c>
       <c r="B12" t="n">
-        <v>135654</v>
+        <v>166574</v>
       </c>
       <c r="C12" t="s">
         <v>122</v>
@@ -7038,7 +7038,7 @@
         <v>28912</v>
       </c>
       <c r="B13" t="n">
-        <v>135655</v>
+        <v>166575</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -7109,7 +7109,7 @@
         <v>28912</v>
       </c>
       <c r="B14" t="n">
-        <v>135656</v>
+        <v>166576</v>
       </c>
       <c r="C14" t="s">
         <v>136</v>
@@ -7176,7 +7176,7 @@
         <v>28912</v>
       </c>
       <c r="B15" t="n">
-        <v>135657</v>
+        <v>166577</v>
       </c>
       <c r="C15" t="s">
         <v>142</v>
@@ -7247,7 +7247,7 @@
         <v>28912</v>
       </c>
       <c r="B16" t="n">
-        <v>135658</v>
+        <v>166578</v>
       </c>
       <c r="C16" t="s">
         <v>148</v>
@@ -7308,7 +7308,7 @@
         <v>28912</v>
       </c>
       <c r="B17" t="n">
-        <v>135659</v>
+        <v>166579</v>
       </c>
       <c r="C17" t="s">
         <v>154</v>
@@ -7379,7 +7379,7 @@
         <v>28912</v>
       </c>
       <c r="B18" t="n">
-        <v>135660</v>
+        <v>166580</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -7444,7 +7444,7 @@
         <v>28912</v>
       </c>
       <c r="B19" t="n">
-        <v>135661</v>
+        <v>166581</v>
       </c>
       <c r="C19" t="s">
         <v>166</v>
@@ -7515,7 +7515,7 @@
         <v>28912</v>
       </c>
       <c r="B20" t="n">
-        <v>135662</v>
+        <v>166582</v>
       </c>
       <c r="C20" t="s">
         <v>172</v>
@@ -7580,7 +7580,7 @@
         <v>28912</v>
       </c>
       <c r="B21" t="n">
-        <v>135663</v>
+        <v>166583</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
@@ -7651,7 +7651,7 @@
         <v>28912</v>
       </c>
       <c r="B22" t="n">
-        <v>135664</v>
+        <v>166584</v>
       </c>
       <c r="C22" t="s">
         <v>186</v>
@@ -7722,7 +7722,7 @@
         <v>28912</v>
       </c>
       <c r="B23" t="n">
-        <v>135665</v>
+        <v>166585</v>
       </c>
       <c r="C23" t="s">
         <v>193</v>
@@ -7793,7 +7793,7 @@
         <v>28912</v>
       </c>
       <c r="B24" t="n">
-        <v>135666</v>
+        <v>166586</v>
       </c>
       <c r="C24" t="s">
         <v>199</v>
@@ -7864,7 +7864,7 @@
         <v>28912</v>
       </c>
       <c r="B25" t="n">
-        <v>135667</v>
+        <v>166587</v>
       </c>
       <c r="C25" t="s">
         <v>206</v>
@@ -7935,7 +7935,7 @@
         <v>28912</v>
       </c>
       <c r="B26" t="n">
-        <v>135668</v>
+        <v>166588</v>
       </c>
       <c r="C26" t="s">
         <v>212</v>
@@ -8063,7 +8063,7 @@
         <v>28912</v>
       </c>
       <c r="B28" t="n">
-        <v>135669</v>
+        <v>166589</v>
       </c>
       <c r="C28" t="s">
         <v>227</v>
@@ -8130,7 +8130,7 @@
         <v>28912</v>
       </c>
       <c r="B29" t="n">
-        <v>135670</v>
+        <v>166590</v>
       </c>
       <c r="C29" t="s">
         <v>233</v>
@@ -8197,7 +8197,7 @@
         <v>28912</v>
       </c>
       <c r="B30" t="n">
-        <v>135671</v>
+        <v>166591</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
@@ -8268,7 +8268,7 @@
         <v>28912</v>
       </c>
       <c r="B31" t="n">
-        <v>135672</v>
+        <v>166592</v>
       </c>
       <c r="C31" t="s">
         <v>245</v>
@@ -8333,7 +8333,7 @@
         <v>28912</v>
       </c>
       <c r="B32" t="n">
-        <v>135673</v>
+        <v>166593</v>
       </c>
       <c r="C32" t="s">
         <v>252</v>
@@ -8404,7 +8404,7 @@
         <v>28912</v>
       </c>
       <c r="B33" t="n">
-        <v>135674</v>
+        <v>166594</v>
       </c>
       <c r="C33" t="s">
         <v>259</v>
@@ -8475,7 +8475,7 @@
         <v>28912</v>
       </c>
       <c r="B34" t="n">
-        <v>135675</v>
+        <v>166595</v>
       </c>
       <c r="C34" t="s">
         <v>265</v>
@@ -8546,7 +8546,7 @@
         <v>28912</v>
       </c>
       <c r="B35" t="n">
-        <v>135676</v>
+        <v>166596</v>
       </c>
       <c r="C35" t="s">
         <v>271</v>
@@ -8753,7 +8753,7 @@
         <v>28912</v>
       </c>
       <c r="B38" t="n">
-        <v>135677</v>
+        <v>166597</v>
       </c>
       <c r="C38" t="s">
         <v>289</v>
@@ -8824,7 +8824,7 @@
         <v>28912</v>
       </c>
       <c r="B39" t="n">
-        <v>135678</v>
+        <v>166598</v>
       </c>
       <c r="C39" t="s">
         <v>295</v>
@@ -8960,7 +8960,7 @@
         <v>28912</v>
       </c>
       <c r="B41" t="n">
-        <v>135679</v>
+        <v>166599</v>
       </c>
       <c r="C41" t="s">
         <v>307</v>
@@ -9031,7 +9031,7 @@
         <v>28912</v>
       </c>
       <c r="B42" t="n">
-        <v>135680</v>
+        <v>166600</v>
       </c>
       <c r="C42" t="s">
         <v>314</v>
@@ -9102,7 +9102,7 @@
         <v>28912</v>
       </c>
       <c r="B43" t="n">
-        <v>135681</v>
+        <v>166601</v>
       </c>
       <c r="C43" t="s">
         <v>320</v>
@@ -9173,7 +9173,7 @@
         <v>28912</v>
       </c>
       <c r="B44" t="n">
-        <v>135682</v>
+        <v>166602</v>
       </c>
       <c r="C44" t="s">
         <v>327</v>
@@ -9244,7 +9244,7 @@
         <v>28912</v>
       </c>
       <c r="B45" t="n">
-        <v>135683</v>
+        <v>166603</v>
       </c>
       <c r="C45" t="s">
         <v>333</v>
@@ -9315,7 +9315,7 @@
         <v>28912</v>
       </c>
       <c r="B46" t="n">
-        <v>135684</v>
+        <v>166604</v>
       </c>
       <c r="C46" t="s">
         <v>340</v>
@@ -9386,7 +9386,7 @@
         <v>28912</v>
       </c>
       <c r="B47" t="n">
-        <v>135685</v>
+        <v>166605</v>
       </c>
       <c r="C47" t="s">
         <v>346</v>
@@ -9457,7 +9457,7 @@
         <v>28912</v>
       </c>
       <c r="B48" t="n">
-        <v>135686</v>
+        <v>166606</v>
       </c>
       <c r="C48" t="s">
         <v>352</v>
@@ -9737,7 +9737,7 @@
         <v>28912</v>
       </c>
       <c r="B52" t="n">
-        <v>135687</v>
+        <v>135681</v>
       </c>
       <c r="C52" t="s">
         <v>378</v>
@@ -9879,7 +9879,7 @@
         <v>28912</v>
       </c>
       <c r="B54" t="n">
-        <v>135688</v>
+        <v>166607</v>
       </c>
       <c r="C54" t="s">
         <v>391</v>
@@ -10017,7 +10017,7 @@
         <v>28912</v>
       </c>
       <c r="B56" t="n">
-        <v>135689</v>
+        <v>166608</v>
       </c>
       <c r="C56" t="s">
         <v>404</v>
@@ -10084,7 +10084,7 @@
         <v>28912</v>
       </c>
       <c r="B57" t="n">
-        <v>135650</v>
+        <v>135654</v>
       </c>
       <c r="C57" t="s">
         <v>102</v>
@@ -10155,7 +10155,7 @@
         <v>28912</v>
       </c>
       <c r="B58" t="n">
-        <v>135690</v>
+        <v>166609</v>
       </c>
       <c r="C58" t="s">
         <v>416</v>
@@ -10226,7 +10226,7 @@
         <v>28912</v>
       </c>
       <c r="B59" t="n">
-        <v>135691</v>
+        <v>166610</v>
       </c>
       <c r="C59" t="s">
         <v>423</v>
@@ -10297,7 +10297,7 @@
         <v>28912</v>
       </c>
       <c r="B60" t="n">
-        <v>135692</v>
+        <v>166611</v>
       </c>
       <c r="C60" t="s">
         <v>429</v>
@@ -10368,7 +10368,7 @@
         <v>28912</v>
       </c>
       <c r="B61" t="n">
-        <v>135693</v>
+        <v>166612</v>
       </c>
       <c r="C61" t="s">
         <v>435</v>
@@ -10433,7 +10433,7 @@
         <v>28912</v>
       </c>
       <c r="B62" t="n">
-        <v>135694</v>
+        <v>135656</v>
       </c>
       <c r="C62" t="s">
         <v>444</v>
@@ -10490,7 +10490,7 @@
         <v>28912</v>
       </c>
       <c r="B63" t="n">
-        <v>135695</v>
+        <v>166613</v>
       </c>
       <c r="C63" t="s">
         <v>450</v>
@@ -10561,7 +10561,7 @@
         <v>28912</v>
       </c>
       <c r="B64" t="n">
-        <v>135696</v>
+        <v>166614</v>
       </c>
       <c r="C64" t="s">
         <v>456</v>
@@ -10626,7 +10626,7 @@
         <v>28912</v>
       </c>
       <c r="B65" t="n">
-        <v>135697</v>
+        <v>166615</v>
       </c>
       <c r="C65" t="s">
         <v>465</v>
@@ -10697,7 +10697,7 @@
         <v>28912</v>
       </c>
       <c r="B66" t="n">
-        <v>135698</v>
+        <v>166616</v>
       </c>
       <c r="C66" t="s">
         <v>471</v>
@@ -10835,7 +10835,7 @@
         <v>28912</v>
       </c>
       <c r="B68" t="n">
-        <v>135699</v>
+        <v>166617</v>
       </c>
       <c r="C68" t="s">
         <v>483</v>
@@ -10910,7 +10910,7 @@
         <v>28912</v>
       </c>
       <c r="B69" t="n">
-        <v>135693</v>
+        <v>135656</v>
       </c>
       <c r="C69" t="s">
         <v>444</v>
@@ -11052,7 +11052,7 @@
         <v>28912</v>
       </c>
       <c r="B71" t="n">
-        <v>135700</v>
+        <v>166618</v>
       </c>
       <c r="C71" t="s">
         <v>503</v>
@@ -11184,7 +11184,7 @@
         <v>28912</v>
       </c>
       <c r="B73" t="n">
-        <v>135701</v>
+        <v>166619</v>
       </c>
       <c r="C73" t="s">
         <v>515</v>
@@ -11255,7 +11255,7 @@
         <v>28912</v>
       </c>
       <c r="B74" t="n">
-        <v>135702</v>
+        <v>166620</v>
       </c>
       <c r="C74" t="s">
         <v>521</v>
@@ -11320,7 +11320,7 @@
         <v>28912</v>
       </c>
       <c r="B75" t="n">
-        <v>135703</v>
+        <v>166621</v>
       </c>
       <c r="C75" t="s">
         <v>531</v>
@@ -11452,7 +11452,7 @@
         <v>28912</v>
       </c>
       <c r="B77" t="n">
-        <v>135704</v>
+        <v>166622</v>
       </c>
       <c r="C77" t="s">
         <v>542</v>
@@ -11527,7 +11527,7 @@
         <v>28912</v>
       </c>
       <c r="B78" t="n">
-        <v>135705</v>
+        <v>166623</v>
       </c>
       <c r="C78" t="s">
         <v>552</v>
@@ -11655,7 +11655,7 @@
         <v>28912</v>
       </c>
       <c r="B80" t="n">
-        <v>135706</v>
+        <v>166624</v>
       </c>
       <c r="C80" t="s">
         <v>567</v>
@@ -11726,7 +11726,7 @@
         <v>28912</v>
       </c>
       <c r="B81" t="n">
-        <v>135707</v>
+        <v>166625</v>
       </c>
       <c r="C81" t="s">
         <v>573</v>
@@ -11868,7 +11868,7 @@
         <v>28912</v>
       </c>
       <c r="B83" t="n">
-        <v>135708</v>
+        <v>166626</v>
       </c>
       <c r="C83" t="s">
         <v>584</v>
@@ -12000,7 +12000,7 @@
         <v>28912</v>
       </c>
       <c r="B85" t="n">
-        <v>135709</v>
+        <v>166627</v>
       </c>
       <c r="C85" t="s">
         <v>595</v>
@@ -12075,7 +12075,7 @@
         <v>28912</v>
       </c>
       <c r="B86" t="n">
-        <v>135710</v>
+        <v>166628</v>
       </c>
       <c r="C86" t="s">
         <v>604</v>
@@ -12217,7 +12217,7 @@
         <v>28912</v>
       </c>
       <c r="B88" t="n">
-        <v>135711</v>
+        <v>166629</v>
       </c>
       <c r="C88" t="s">
         <v>615</v>
@@ -12367,7 +12367,7 @@
         <v>28912</v>
       </c>
       <c r="B90" t="n">
-        <v>135712</v>
+        <v>166630</v>
       </c>
       <c r="C90" t="s">
         <v>631</v>
@@ -12507,7 +12507,7 @@
         <v>28912</v>
       </c>
       <c r="B92" t="n">
-        <v>135713</v>
+        <v>166631</v>
       </c>
       <c r="C92" t="s">
         <v>649</v>
@@ -12582,7 +12582,7 @@
         <v>28912</v>
       </c>
       <c r="B93" t="n">
-        <v>135714</v>
+        <v>166632</v>
       </c>
       <c r="C93" t="s">
         <v>658</v>
@@ -12799,7 +12799,7 @@
         <v>28912</v>
       </c>
       <c r="B96" t="n">
-        <v>135715</v>
+        <v>166633</v>
       </c>
       <c r="C96" t="s">
         <v>681</v>
@@ -12870,7 +12870,7 @@
         <v>28912</v>
       </c>
       <c r="B97" t="n">
-        <v>135716</v>
+        <v>166634</v>
       </c>
       <c r="C97" t="s">
         <v>690</v>
@@ -12935,7 +12935,7 @@
         <v>28912</v>
       </c>
       <c r="B98" t="n">
-        <v>135717</v>
+        <v>166635</v>
       </c>
       <c r="C98" t="s">
         <v>699</v>
@@ -13006,7 +13006,7 @@
         <v>28912</v>
       </c>
       <c r="B99" t="n">
-        <v>135718</v>
+        <v>166636</v>
       </c>
       <c r="C99" t="s">
         <v>709</v>
@@ -13081,7 +13081,7 @@
         <v>28912</v>
       </c>
       <c r="B100" t="n">
-        <v>135719</v>
+        <v>166637</v>
       </c>
       <c r="C100" t="s">
         <v>718</v>
@@ -13156,7 +13156,7 @@
         <v>28912</v>
       </c>
       <c r="B101" t="n">
-        <v>135720</v>
+        <v>166638</v>
       </c>
       <c r="C101" t="s">
         <v>724</v>
@@ -13375,7 +13375,7 @@
         <v>28912</v>
       </c>
       <c r="B104" t="n">
-        <v>135721</v>
+        <v>166639</v>
       </c>
       <c r="C104" t="s">
         <v>750</v>
@@ -13436,7 +13436,7 @@
         <v>28912</v>
       </c>
       <c r="B105" t="n">
-        <v>135722</v>
+        <v>166640</v>
       </c>
       <c r="C105" t="s">
         <v>759</v>
@@ -13507,7 +13507,7 @@
         <v>28912</v>
       </c>
       <c r="B106" t="n">
-        <v>135723</v>
+        <v>166641</v>
       </c>
       <c r="C106" t="s">
         <v>768</v>
@@ -13574,7 +13574,7 @@
         <v>28912</v>
       </c>
       <c r="B107" t="n">
-        <v>135724</v>
+        <v>166642</v>
       </c>
       <c r="C107" t="s">
         <v>775</v>
@@ -13645,7 +13645,7 @@
         <v>28912</v>
       </c>
       <c r="B108" t="n">
-        <v>135725</v>
+        <v>166643</v>
       </c>
       <c r="C108" t="s">
         <v>784</v>
@@ -13720,7 +13720,7 @@
         <v>28912</v>
       </c>
       <c r="B109" t="n">
-        <v>135726</v>
+        <v>166644</v>
       </c>
       <c r="C109" t="s">
         <v>794</v>
@@ -13795,7 +13795,7 @@
         <v>28912</v>
       </c>
       <c r="B110" t="n">
-        <v>135727</v>
+        <v>166645</v>
       </c>
       <c r="C110" t="s">
         <v>800</v>
@@ -13939,7 +13939,7 @@
         <v>28912</v>
       </c>
       <c r="B112" t="n">
-        <v>135728</v>
+        <v>166646</v>
       </c>
       <c r="C112" t="s">
         <v>818</v>
@@ -14014,7 +14014,7 @@
         <v>28912</v>
       </c>
       <c r="B113" t="n">
-        <v>135729</v>
+        <v>166647</v>
       </c>
       <c r="C113" t="s">
         <v>827</v>
@@ -14154,7 +14154,7 @@
         <v>28912</v>
       </c>
       <c r="B115" t="n">
-        <v>135730</v>
+        <v>166648</v>
       </c>
       <c r="C115" t="s">
         <v>847</v>
@@ -14219,7 +14219,7 @@
         <v>28912</v>
       </c>
       <c r="B116" t="n">
-        <v>135731</v>
+        <v>166649</v>
       </c>
       <c r="C116" t="s">
         <v>856</v>
@@ -14288,7 +14288,7 @@
         <v>28912</v>
       </c>
       <c r="B117" t="n">
-        <v>135732</v>
+        <v>166650</v>
       </c>
       <c r="C117" t="s">
         <v>866</v>
@@ -14363,7 +14363,7 @@
         <v>28912</v>
       </c>
       <c r="B118" t="n">
-        <v>135733</v>
+        <v>166651</v>
       </c>
       <c r="C118" t="s">
         <v>875</v>
@@ -14434,7 +14434,7 @@
         <v>28912</v>
       </c>
       <c r="B119" t="n">
-        <v>135734</v>
+        <v>166652</v>
       </c>
       <c r="C119" t="s">
         <v>884</v>
@@ -14505,7 +14505,7 @@
         <v>28912</v>
       </c>
       <c r="B120" t="n">
-        <v>135735</v>
+        <v>166653</v>
       </c>
       <c r="C120" t="s">
         <v>894</v>
@@ -14574,7 +14574,7 @@
         <v>28912</v>
       </c>
       <c r="B121" t="n">
-        <v>135736</v>
+        <v>166654</v>
       </c>
       <c r="C121" t="s">
         <v>901</v>
@@ -14645,7 +14645,7 @@
         <v>28912</v>
       </c>
       <c r="B122" t="n">
-        <v>135737</v>
+        <v>166655</v>
       </c>
       <c r="C122" t="s">
         <v>908</v>
@@ -14862,7 +14862,7 @@
         <v>28912</v>
       </c>
       <c r="B125" t="n">
-        <v>135738</v>
+        <v>166656</v>
       </c>
       <c r="C125" t="s">
         <v>929</v>
@@ -14937,7 +14937,7 @@
         <v>28912</v>
       </c>
       <c r="B126" t="n">
-        <v>135739</v>
+        <v>166657</v>
       </c>
       <c r="C126" t="s">
         <v>937</v>
@@ -15073,7 +15073,7 @@
         <v>28912</v>
       </c>
       <c r="B128" t="n">
-        <v>135740</v>
+        <v>166658</v>
       </c>
       <c r="C128" t="s">
         <v>954</v>
@@ -15274,7 +15274,7 @@
         <v>28912</v>
       </c>
       <c r="B131" t="n">
-        <v>135741</v>
+        <v>166659</v>
       </c>
       <c r="C131" t="s">
         <v>975</v>
@@ -15345,7 +15345,7 @@
         <v>28912</v>
       </c>
       <c r="B132" t="n">
-        <v>135742</v>
+        <v>166660</v>
       </c>
       <c r="C132" t="s">
         <v>983</v>
@@ -15410,7 +15410,7 @@
         <v>28912</v>
       </c>
       <c r="B133" t="n">
-        <v>135743</v>
+        <v>166661</v>
       </c>
       <c r="C133" t="s">
         <v>990</v>
@@ -15550,7 +15550,7 @@
         <v>28912</v>
       </c>
       <c r="B135" t="n">
-        <v>135744</v>
+        <v>166662</v>
       </c>
       <c r="C135" t="s">
         <v>1005</v>
@@ -15625,7 +15625,7 @@
         <v>28912</v>
       </c>
       <c r="B136" t="n">
-        <v>135745</v>
+        <v>166663</v>
       </c>
       <c r="C136" t="s">
         <v>1012</v>
@@ -15700,7 +15700,7 @@
         <v>28912</v>
       </c>
       <c r="B137" t="n">
-        <v>135746</v>
+        <v>166664</v>
       </c>
       <c r="C137" t="s">
         <v>1020</v>
@@ -15775,7 +15775,7 @@
         <v>28912</v>
       </c>
       <c r="B138" t="n">
-        <v>135747</v>
+        <v>166665</v>
       </c>
       <c r="C138" t="s">
         <v>1027</v>
@@ -15996,7 +15996,7 @@
         <v>28912</v>
       </c>
       <c r="B141" t="n">
-        <v>135748</v>
+        <v>166666</v>
       </c>
       <c r="C141" t="s">
         <v>1049</v>
@@ -16067,7 +16067,7 @@
         <v>28912</v>
       </c>
       <c r="B142" t="n">
-        <v>135749</v>
+        <v>166667</v>
       </c>
       <c r="C142" t="s">
         <v>1057</v>
@@ -16138,7 +16138,7 @@
         <v>28912</v>
       </c>
       <c r="B143" t="n">
-        <v>135750</v>
+        <v>166668</v>
       </c>
       <c r="C143" t="s">
         <v>1065</v>
@@ -16213,7 +16213,7 @@
         <v>28912</v>
       </c>
       <c r="B144" t="n">
-        <v>135751</v>
+        <v>166669</v>
       </c>
       <c r="C144" t="s">
         <v>1072</v>
@@ -16288,7 +16288,7 @@
         <v>28912</v>
       </c>
       <c r="B145" t="n">
-        <v>135752</v>
+        <v>166670</v>
       </c>
       <c r="C145" t="s">
         <v>1079</v>
@@ -16357,7 +16357,7 @@
         <v>28912</v>
       </c>
       <c r="B146" t="n">
-        <v>135753</v>
+        <v>166671</v>
       </c>
       <c r="C146" t="s">
         <v>1089</v>
@@ -16422,7 +16422,7 @@
         <v>28912</v>
       </c>
       <c r="B147" t="n">
-        <v>135754</v>
+        <v>166672</v>
       </c>
       <c r="C147" t="s">
         <v>1098</v>
@@ -16491,7 +16491,7 @@
         <v>28912</v>
       </c>
       <c r="B148" t="n">
-        <v>135755</v>
+        <v>166673</v>
       </c>
       <c r="C148" t="s">
         <v>1105</v>
@@ -16621,7 +16621,7 @@
         <v>28912</v>
       </c>
       <c r="B150" t="n">
-        <v>135756</v>
+        <v>166674</v>
       </c>
       <c r="C150" t="s">
         <v>1122</v>
@@ -16692,7 +16692,7 @@
         <v>28912</v>
       </c>
       <c r="B151" t="n">
-        <v>135757</v>
+        <v>166675</v>
       </c>
       <c r="C151" t="s">
         <v>1130</v>
@@ -16761,7 +16761,7 @@
         <v>28912</v>
       </c>
       <c r="B152" t="n">
-        <v>135686</v>
+        <v>135681</v>
       </c>
       <c r="C152" t="s">
         <v>378</v>
@@ -16836,7 +16836,7 @@
         <v>28912</v>
       </c>
       <c r="B153" t="n">
-        <v>135758</v>
+        <v>166676</v>
       </c>
       <c r="C153" t="s">
         <v>1144</v>
@@ -17051,7 +17051,7 @@
         <v>28912</v>
       </c>
       <c r="B156" t="n">
-        <v>135759</v>
+        <v>166677</v>
       </c>
       <c r="C156" t="s">
         <v>1171</v>
@@ -17126,7 +17126,7 @@
         <v>28912</v>
       </c>
       <c r="B157" t="n">
-        <v>135760</v>
+        <v>166678</v>
       </c>
       <c r="C157" t="s">
         <v>1180</v>
@@ -17351,7 +17351,7 @@
         <v>28912</v>
       </c>
       <c r="B160" t="n">
-        <v>135761</v>
+        <v>166679</v>
       </c>
       <c r="C160" t="s">
         <v>1201</v>
@@ -17426,7 +17426,7 @@
         <v>28912</v>
       </c>
       <c r="B161" t="n">
-        <v>135762</v>
+        <v>166680</v>
       </c>
       <c r="C161" t="s">
         <v>1211</v>
@@ -17501,7 +17501,7 @@
         <v>28912</v>
       </c>
       <c r="B162" t="n">
-        <v>135763</v>
+        <v>166681</v>
       </c>
       <c r="C162" t="s">
         <v>1221</v>
@@ -17576,7 +17576,7 @@
         <v>28912</v>
       </c>
       <c r="B163" t="n">
-        <v>135764</v>
+        <v>166682</v>
       </c>
       <c r="C163" t="s">
         <v>1229</v>
@@ -17866,7 +17866,7 @@
         <v>28912</v>
       </c>
       <c r="B167" t="n">
-        <v>135765</v>
+        <v>166683</v>
       </c>
       <c r="C167" t="s">
         <v>1261</v>
@@ -18016,7 +18016,7 @@
         <v>28912</v>
       </c>
       <c r="B169" t="n">
-        <v>135766</v>
+        <v>166684</v>
       </c>
       <c r="C169" t="s">
         <v>1277</v>
@@ -18316,7 +18316,7 @@
         <v>28912</v>
       </c>
       <c r="B173" t="n">
-        <v>135767</v>
+        <v>166685</v>
       </c>
       <c r="C173" t="s">
         <v>1312</v>
@@ -18391,7 +18391,7 @@
         <v>28912</v>
       </c>
       <c r="B174" t="n">
-        <v>135768</v>
+        <v>166686</v>
       </c>
       <c r="C174" t="s">
         <v>1321</v>
@@ -18752,7 +18752,7 @@
         <v>28912</v>
       </c>
       <c r="B179" t="n">
-        <v>135769</v>
+        <v>166687</v>
       </c>
       <c r="C179" t="s">
         <v>1364</v>
@@ -18827,7 +18827,7 @@
         <v>28912</v>
       </c>
       <c r="B180" t="n">
-        <v>135770</v>
+        <v>166688</v>
       </c>
       <c r="C180" t="s">
         <v>1373</v>
@@ -18900,7 +18900,7 @@
         <v>28912</v>
       </c>
       <c r="B181" t="n">
-        <v>135771</v>
+        <v>166689</v>
       </c>
       <c r="C181" t="s">
         <v>1383</v>
@@ -19350,7 +19350,7 @@
         <v>28912</v>
       </c>
       <c r="B187" t="n">
-        <v>135772</v>
+        <v>166690</v>
       </c>
       <c r="C187" t="s">
         <v>1431</v>
@@ -19425,7 +19425,7 @@
         <v>28912</v>
       </c>
       <c r="B188" t="n">
-        <v>135773</v>
+        <v>166691</v>
       </c>
       <c r="C188" t="s">
         <v>1439</v>
@@ -19575,7 +19575,7 @@
         <v>28912</v>
       </c>
       <c r="B190" t="n">
-        <v>135774</v>
+        <v>166692</v>
       </c>
       <c r="C190" t="s">
         <v>1458</v>
@@ -19725,7 +19725,7 @@
         <v>28912</v>
       </c>
       <c r="B192" t="n">
-        <v>135775</v>
+        <v>166693</v>
       </c>
       <c r="C192" t="s">
         <v>1476</v>
@@ -19790,7 +19790,7 @@
         <v>28912</v>
       </c>
       <c r="B193" t="n">
-        <v>135776</v>
+        <v>135709</v>
       </c>
       <c r="C193" t="s">
         <v>1484</v>
@@ -20090,7 +20090,7 @@
         <v>28912</v>
       </c>
       <c r="B197" t="n">
-        <v>135777</v>
+        <v>166694</v>
       </c>
       <c r="C197" t="s">
         <v>1513</v>
@@ -20240,7 +20240,7 @@
         <v>28912</v>
       </c>
       <c r="B199" t="n">
-        <v>135778</v>
+        <v>166695</v>
       </c>
       <c r="C199" t="s">
         <v>1529</v>
@@ -20390,7 +20390,7 @@
         <v>28912</v>
       </c>
       <c r="B201" t="n">
-        <v>135775</v>
+        <v>135709</v>
       </c>
       <c r="C201" t="s">
         <v>1484</v>
@@ -20465,7 +20465,7 @@
         <v>28912</v>
       </c>
       <c r="B202" t="n">
-        <v>135779</v>
+        <v>166696</v>
       </c>
       <c r="C202" t="s">
         <v>1550</v>
@@ -20540,7 +20540,7 @@
         <v>28912</v>
       </c>
       <c r="B203" t="n">
-        <v>135780</v>
+        <v>166697</v>
       </c>
       <c r="C203" t="s">
         <v>1557</v>
@@ -20690,7 +20690,7 @@
         <v>28912</v>
       </c>
       <c r="B205" t="n">
-        <v>135781</v>
+        <v>166698</v>
       </c>
       <c r="C205" t="s">
         <v>1572</v>
@@ -20765,7 +20765,7 @@
         <v>28912</v>
       </c>
       <c r="B206" t="n">
-        <v>135782</v>
+        <v>166699</v>
       </c>
       <c r="C206" t="s">
         <v>1578</v>
@@ -20830,7 +20830,7 @@
         <v>28912</v>
       </c>
       <c r="B207" t="n">
-        <v>135783</v>
+        <v>166700</v>
       </c>
       <c r="C207" t="s">
         <v>1586</v>
@@ -20980,7 +20980,7 @@
         <v>28912</v>
       </c>
       <c r="B209" t="n">
-        <v>135784</v>
+        <v>166701</v>
       </c>
       <c r="C209" t="s">
         <v>1604</v>
@@ -21055,7 +21055,7 @@
         <v>28912</v>
       </c>
       <c r="B210" t="n">
-        <v>135785</v>
+        <v>166702</v>
       </c>
       <c r="C210" t="s">
         <v>1612</v>
@@ -21130,7 +21130,7 @@
         <v>28912</v>
       </c>
       <c r="B211" t="n">
-        <v>135786</v>
+        <v>166703</v>
       </c>
       <c r="C211" t="s">
         <v>1620</v>
@@ -21280,7 +21280,7 @@
         <v>28912</v>
       </c>
       <c r="B213" t="n">
-        <v>135787</v>
+        <v>166704</v>
       </c>
       <c r="C213" t="s">
         <v>1639</v>
@@ -21351,7 +21351,7 @@
         <v>28912</v>
       </c>
       <c r="B214" t="n">
-        <v>135686</v>
+        <v>135681</v>
       </c>
       <c r="C214" t="s">
         <v>378</v>
@@ -21426,7 +21426,7 @@
         <v>28912</v>
       </c>
       <c r="B215" t="n">
-        <v>135788</v>
+        <v>166705</v>
       </c>
       <c r="C215" t="s">
         <v>1653</v>
@@ -21576,7 +21576,7 @@
         <v>28912</v>
       </c>
       <c r="B217" t="n">
-        <v>135789</v>
+        <v>166706</v>
       </c>
       <c r="C217" t="s">
         <v>1667</v>
@@ -21651,7 +21651,7 @@
         <v>28912</v>
       </c>
       <c r="B218" t="n">
-        <v>135790</v>
+        <v>166707</v>
       </c>
       <c r="C218" t="s">
         <v>1675</v>
@@ -21722,7 +21722,7 @@
         <v>28912</v>
       </c>
       <c r="B219" t="n">
-        <v>135791</v>
+        <v>166708</v>
       </c>
       <c r="C219" t="s">
         <v>1685</v>
@@ -21793,7 +21793,7 @@
         <v>28912</v>
       </c>
       <c r="B220" t="n">
-        <v>135792</v>
+        <v>166709</v>
       </c>
       <c r="C220" t="s">
         <v>1693</v>
@@ -21864,7 +21864,7 @@
         <v>28912</v>
       </c>
       <c r="B221" t="n">
-        <v>135793</v>
+        <v>166710</v>
       </c>
       <c r="C221" t="s">
         <v>1701</v>
@@ -21939,7 +21939,7 @@
         <v>28912</v>
       </c>
       <c r="B222" t="n">
-        <v>135794</v>
+        <v>166711</v>
       </c>
       <c r="C222" t="s">
         <v>1709</v>
@@ -22014,7 +22014,7 @@
         <v>28912</v>
       </c>
       <c r="B223" t="n">
-        <v>135795</v>
+        <v>166712</v>
       </c>
       <c r="C223" t="s">
         <v>1716</v>
@@ -22089,7 +22089,7 @@
         <v>28912</v>
       </c>
       <c r="B224" t="n">
-        <v>135796</v>
+        <v>166713</v>
       </c>
       <c r="C224" t="s">
         <v>1726</v>
@@ -22164,7 +22164,7 @@
         <v>28912</v>
       </c>
       <c r="B225" t="n">
-        <v>135797</v>
+        <v>166714</v>
       </c>
       <c r="C225" t="s">
         <v>1736</v>
@@ -22239,7 +22239,7 @@
         <v>28912</v>
       </c>
       <c r="B226" t="n">
-        <v>135798</v>
+        <v>166715</v>
       </c>
       <c r="C226" t="s">
         <v>1744</v>
@@ -22314,7 +22314,7 @@
         <v>28912</v>
       </c>
       <c r="B227" t="n">
-        <v>135799</v>
+        <v>166716</v>
       </c>
       <c r="C227" t="s">
         <v>1751</v>
@@ -22389,7 +22389,7 @@
         <v>28912</v>
       </c>
       <c r="B228" t="n">
-        <v>135800</v>
+        <v>166717</v>
       </c>
       <c r="C228" t="s">
         <v>1759</v>
@@ -22464,7 +22464,7 @@
         <v>28912</v>
       </c>
       <c r="B229" t="n">
-        <v>135801</v>
+        <v>166718</v>
       </c>
       <c r="C229" t="s">
         <v>1766</v>
@@ -22539,7 +22539,7 @@
         <v>28912</v>
       </c>
       <c r="B230" t="n">
-        <v>135802</v>
+        <v>166719</v>
       </c>
       <c r="C230" t="s">
         <v>1774</v>
@@ -22614,7 +22614,7 @@
         <v>28912</v>
       </c>
       <c r="B231" t="n">
-        <v>135803</v>
+        <v>166720</v>
       </c>
       <c r="C231" t="s">
         <v>1782</v>
@@ -22685,7 +22685,7 @@
         <v>28912</v>
       </c>
       <c r="B232" t="n">
-        <v>135804</v>
+        <v>166721</v>
       </c>
       <c r="C232" t="s">
         <v>1791</v>
@@ -22760,7 +22760,7 @@
         <v>28912</v>
       </c>
       <c r="B233" t="n">
-        <v>135805</v>
+        <v>166722</v>
       </c>
       <c r="C233" t="s">
         <v>1799</v>
@@ -22835,7 +22835,7 @@
         <v>28912</v>
       </c>
       <c r="B234" t="n">
-        <v>135806</v>
+        <v>166723</v>
       </c>
       <c r="C234" t="s">
         <v>1807</v>
@@ -22910,7 +22910,7 @@
         <v>28912</v>
       </c>
       <c r="B235" t="n">
-        <v>135807</v>
+        <v>166724</v>
       </c>
       <c r="C235" t="s">
         <v>1814</v>
@@ -22985,7 +22985,7 @@
         <v>28912</v>
       </c>
       <c r="B236" t="n">
-        <v>135808</v>
+        <v>166725</v>
       </c>
       <c r="C236" t="s">
         <v>1822</v>
@@ -23135,7 +23135,7 @@
         <v>28912</v>
       </c>
       <c r="B238" t="n">
-        <v>135809</v>
+        <v>166726</v>
       </c>
       <c r="C238" t="s">
         <v>1838</v>
@@ -23196,7 +23196,7 @@
         <v>28912</v>
       </c>
       <c r="B239" t="n">
-        <v>135810</v>
+        <v>166727</v>
       </c>
       <c r="C239" t="s">
         <v>1845</v>
@@ -23265,7 +23265,7 @@
         <v>28912</v>
       </c>
       <c r="B240" t="n">
-        <v>135811</v>
+        <v>166728</v>
       </c>
       <c r="C240" t="s">
         <v>1852</v>
@@ -23334,7 +23334,7 @@
         <v>28912</v>
       </c>
       <c r="B241" t="n">
-        <v>135812</v>
+        <v>166729</v>
       </c>
       <c r="C241" t="s">
         <v>1859</v>
@@ -23472,7 +23472,7 @@
         <v>28912</v>
       </c>
       <c r="B243" t="n">
-        <v>135813</v>
+        <v>166730</v>
       </c>
       <c r="C243" t="s">
         <v>1873</v>
@@ -23594,7 +23594,7 @@
         <v>28912</v>
       </c>
       <c r="B245" t="n">
-        <v>135814</v>
+        <v>166731</v>
       </c>
       <c r="C245" t="s">
         <v>1885</v>
@@ -23655,7 +23655,7 @@
         <v>28912</v>
       </c>
       <c r="B246" t="n">
-        <v>135815</v>
+        <v>166732</v>
       </c>
       <c r="C246" t="s">
         <v>1892</v>
@@ -23724,7 +23724,7 @@
         <v>28912</v>
       </c>
       <c r="B247" t="n">
-        <v>135816</v>
+        <v>166733</v>
       </c>
       <c r="C247" t="s">
         <v>1899</v>
